--- a/data/output/mapings_EMP_GDP.xlsx
+++ b/data/output/mapings_EMP_GDP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>IRI</t>
   </si>
@@ -26,6 +26,135 @@
     <t>Enumeration</t>
   </si>
   <si>
+    <t>http://example2.org/Concept/CL_ACTIVITY/ISIC4_A01</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_ACTIVITY/ISIC4_A02</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_ACTIVITY/ISIC4_A03</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/12</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/16</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/20</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/24</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/28</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/31</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/32</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/36</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/4</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/40</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/51</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/533</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/660</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_COUNTRY/8</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_SEX/F</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_SEX/M</t>
+  </si>
+  <si>
+    <t>http://example2.org/Concept/CL_SEX/T</t>
+  </si>
+  <si>
+    <t>01 - Crop and animal production, hunting and related service activities</t>
+  </si>
+  <si>
+    <t>02 - Forestry and logging</t>
+  </si>
+  <si>
+    <t>03 - Fishing and aquaculture</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>http://example2.org/SubstantiveValueDomain/CL_ACTIVITY</t>
+  </si>
+  <si>
+    <t>http://example2.org/SubstantiveValueDomain/CL_COUNTRY</t>
+  </si>
+  <si>
+    <t>http://example2.org/SubstantiveValueDomain/CL_SEX</t>
+  </si>
+  <si>
     <t>http://example1.org/Concept/CL_EC2/EC2_ISIC3_A01</t>
   </si>
   <si>
@@ -84,48 +213,6 @@
   </si>
   <si>
     <t>05 - Fishing, aquaculture and service activities incidental to fishing</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Algeria</t>
   </si>
   <si>
     <t>http://example1.org/SubstantiveValueDomain/CL_EC2</t>
@@ -502,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -535,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -546,10 +633,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -557,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -568,10 +655,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,10 +666,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -590,10 +677,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -601,10 +688,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -612,10 +699,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -623,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -634,10 +721,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,10 +732,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -656,10 +743,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,10 +754,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -678,10 +765,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -689,10 +776,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -700,10 +787,43 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -742,6 +862,12 @@
     <hyperlink ref="C17" r:id="rId32"/>
     <hyperlink ref="A18" r:id="rId33"/>
     <hyperlink ref="C18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="C20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -768,189 +894,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
